--- a/sample-drools-spring/src/main/resources/rules/table/decision.xlsx
+++ b/sample-drools-spring/src/main/resources/rules/table/decision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\java\samples\sample-drools-spring\src\main\resources\rules\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6CDD7-ECD9-416A-AF06-E8076F13D819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E71BA1-10CD-43C4-8461-406AB44B1A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FD1C3014-AB0D-43BA-9E71-0D393D895359}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FD1C3014-AB0D-43BA-9E71-0D393D895359}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>import</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itemsCount &gt; $1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>expensive</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -73,15 +69,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Pay Charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTable Expensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPrice &gt; $1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More expensive than</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverInDays == $1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.github.caijh.sample.drools.model.Order,com.github.caijh.sample.drools.model.Charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer totalCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTable Basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rules.table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCount &gt; $1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>itemCount &lt;= $1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>insert(new Charge($1))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pay Charge</t>
+    <t>itemCount &lt;=$1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -97,34 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cheap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleTable Expensive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCount &gt; $1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCount &lt;=$1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalPrice &gt; $1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>More expensive than</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pay charge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$order.getItemCount() * 1.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,35 +161,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deliverInDays == $1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.github.caijh.sample.drools.model.Order,com.github.caijh.sample.drools.model.Charge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer totalCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequential</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleTable Basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleSet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rules.table</t>
+    <t>insert(new Charge($1));
+System.out.println($1);</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +594,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,10 +609,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -622,24 +622,24 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>1</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -681,39 +681,39 @@
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -772,23 +772,23 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -825,45 +825,45 @@
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>300</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,12 +937,12 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>4</v>
